--- a/docs/opcode_comparisons.xlsx
+++ b/docs/opcode_comparisons.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Duncan Munro\Dropbox\dev\lazarus\computing\z80\xa80\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D56CF9-21B8-4605-972A-C6DC5222894E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD616E08-3EF7-4CF6-B64D-5E07D270DF10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1296" yWindow="144" windowWidth="20004" windowHeight="11832" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="360" windowWidth="20076" windowHeight="11472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opcodes" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="169">
   <si>
     <t>ADC</t>
   </si>
@@ -473,6 +473,75 @@
   </si>
   <si>
     <t>TST</t>
+  </si>
+  <si>
+    <t>EZ80</t>
+  </si>
+  <si>
+    <t>MLT</t>
+  </si>
+  <si>
+    <t>IND2</t>
+  </si>
+  <si>
+    <t>IND2R</t>
+  </si>
+  <si>
+    <t>INDM</t>
+  </si>
+  <si>
+    <t>INDMR</t>
+  </si>
+  <si>
+    <t>INDRX</t>
+  </si>
+  <si>
+    <t>INI2</t>
+  </si>
+  <si>
+    <t>INI2R</t>
+  </si>
+  <si>
+    <t>INIM</t>
+  </si>
+  <si>
+    <t>INIMR</t>
+  </si>
+  <si>
+    <t>INIRX</t>
+  </si>
+  <si>
+    <t>LEA</t>
+  </si>
+  <si>
+    <t>OTDRX</t>
+  </si>
+  <si>
+    <t>OTIRX</t>
+  </si>
+  <si>
+    <t>OUTD2</t>
+  </si>
+  <si>
+    <t>OTD2R</t>
+  </si>
+  <si>
+    <t>OUTI2</t>
+  </si>
+  <si>
+    <t>OTI2R</t>
+  </si>
+  <si>
+    <t>PEA</t>
+  </si>
+  <si>
+    <t>RSMIX</t>
+  </si>
+  <si>
+    <t>STMIX</t>
+  </si>
+  <si>
+    <t>TSTIO</t>
   </si>
 </sst>
 </file>
@@ -535,7 +604,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -562,17 +634,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C850F616-BBF8-416D-853E-69ED9F2709BA}" name="Table1" displayName="Table1" ref="A3:E142" totalsRowShown="0">
-  <autoFilter ref="A3:E142" xr:uid="{C850F616-BBF8-416D-853E-69ED9F2709BA}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:E142">
-    <sortCondition ref="A3:A144"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C850F616-BBF8-416D-853E-69ED9F2709BA}" name="Table1" displayName="Table1" ref="A3:F164" totalsRowShown="0">
+  <autoFilter ref="A3:F164" xr:uid="{C850F616-BBF8-416D-853E-69ED9F2709BA}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F164">
+    <sortCondition ref="A3:A164"/>
   </sortState>
-  <tableColumns count="5">
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{F59557EA-971E-4C34-8FEE-A2E40C51E186}" name="Opcode"/>
-    <tableColumn id="2" xr3:uid="{95A82B73-3068-4A75-B689-0213C1C4B5B6}" name="8080" dataDxfId="3">
+    <tableColumn id="2" xr3:uid="{95A82B73-3068-4A75-B689-0213C1C4B5B6}" name="8080" dataDxfId="4">
       <calculatedColumnFormula>VLOOKUP(Table1[[#This Row],[Opcode]],#REF!,1,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DDB2292C-5E44-416F-A07A-55234155CCCD}" name="8085" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{DDB2292C-5E44-416F-A07A-55234155CCCD}" name="8085" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{7D2F2118-9B98-428A-8EE9-D1537676B66D}" name="EZ80" dataDxfId="2"/>
     <tableColumn id="4" xr3:uid="{CF3909CE-A2E1-4495-9ABF-4E815F799044}" name="Z80" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{A34F5DCC-B42F-4FB0-82B1-25120EF25A2B}" name="Z180" dataDxfId="0"/>
   </tableColumns>
@@ -843,10 +916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G142"/>
+  <dimension ref="A1:F164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A142"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -854,12 +927,12 @@
     <col min="1" max="1" width="9.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>126</v>
       </c>
@@ -869,14 +942,17 @@
       <c r="C3" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -888,12 +964,9 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="G4" t="str">
-        <f>"             MIXED(""" &amp;A4&amp;""") |"</f>
-        <v xml:space="preserve">             MIXED("ACI") |</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -909,12 +982,11 @@
       <c r="E5" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G5" t="str">
-        <f t="shared" ref="G5:G68" si="0">"             MIXED(""" &amp;A5&amp;""") |"</f>
-        <v xml:space="preserve">             MIXED("ADC") |</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F5" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -930,12 +1002,11 @@
       <c r="E6" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">             MIXED("ADD") |</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F6" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -947,12 +1018,9 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="G7" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">             MIXED("ADI") |</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>69</v>
       </c>
@@ -964,12 +1032,9 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="G8" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">             MIXED("ANA") |</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -981,12 +1046,11 @@
       <c r="E9" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G9" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">             MIXED("AND") |</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F9" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -998,12 +1062,9 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="G10" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">             MIXED("ANI") |</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1015,12 +1076,11 @@
       <c r="E11" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G11" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">             MIXED("BIT") |</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F11" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1036,12 +1096,11 @@
       <c r="E12" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G12" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">             MIXED("CALL") |</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F12" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -1053,12 +1112,9 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="G13" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">             MIXED("CC") |</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1070,12 +1126,11 @@
       <c r="E14" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G14" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">             MIXED("CCF") |</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F14" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>72</v>
       </c>
@@ -1087,12 +1142,9 @@
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="G15" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">             MIXED("CM") |</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -1104,12 +1156,9 @@
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="G16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">             MIXED("CMA") |</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>74</v>
       </c>
@@ -1121,12 +1170,9 @@
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="G17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">             MIXED("CMC") |</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>75</v>
       </c>
@@ -1138,12 +1184,9 @@
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="G18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">             MIXED("CMP") |</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>76</v>
       </c>
@@ -1155,12 +1198,9 @@
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="G19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">             MIXED("CNC") |</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -1172,12 +1212,9 @@
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="G20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">             MIXED("CNZ") |</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1193,12 +1230,11 @@
       <c r="E21" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">             MIXED("CP") |</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F21" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1210,12 +1246,11 @@
       <c r="E22" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">             MIXED("CPD") |</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F22" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1227,12 +1262,11 @@
       <c r="E23" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">             MIXED("CPDR") |</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F23" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>78</v>
       </c>
@@ -1244,12 +1278,9 @@
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-      <c r="G24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">             MIXED("CPE") |</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -1265,12 +1296,11 @@
       <c r="E25" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">             MIXED("CPI") |</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F25" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -1282,12 +1312,11 @@
       <c r="E26" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">             MIXED("CPIR") |</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F26" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -1299,12 +1328,11 @@
       <c r="E27" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">             MIXED("CPL") |</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F27" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>79</v>
       </c>
@@ -1316,12 +1344,9 @@
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
-      <c r="G28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">             MIXED("CPO") |</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>80</v>
       </c>
@@ -1333,12 +1358,9 @@
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
-      <c r="G29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">             MIXED("CZ") |</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -1354,12 +1376,11 @@
       <c r="E30" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G30" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">             MIXED("DAA") |</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F30" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>81</v>
       </c>
@@ -1371,12 +1392,9 @@
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
-      <c r="G31" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">             MIXED("DAD") |</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>82</v>
       </c>
@@ -1388,12 +1406,9 @@
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
-      <c r="G32" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">             MIXED("DCR") |</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>83</v>
       </c>
@@ -1405,12 +1420,9 @@
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
-      <c r="G33" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">             MIXED("DCX") |</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -1422,12 +1434,11 @@
       <c r="E34" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G34" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">             MIXED("DEC") |</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F34" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -1443,12 +1454,11 @@
       <c r="E35" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G35" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">             MIXED("DI") |</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F35" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>15</v>
       </c>
@@ -1460,12 +1470,11 @@
       <c r="E36" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G36" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">             MIXED("DJNZ") |</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F36" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -1481,12 +1490,11 @@
       <c r="E37" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G37" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">             MIXED("EI") |</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F37" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -1498,12 +1506,11 @@
       <c r="E38" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G38" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">             MIXED("EX") |</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F38" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>18</v>
       </c>
@@ -1515,12 +1522,11 @@
       <c r="E39" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G39" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">             MIXED("EXX") |</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F39" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -1532,12 +1538,11 @@
       <c r="E40" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G40" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">             MIXED("HALT") |</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F40" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>84</v>
       </c>
@@ -1549,12 +1554,9 @@
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
-      <c r="G41" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">             MIXED("HLT") |</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>20</v>
       </c>
@@ -1566,12 +1568,11 @@
       <c r="E42" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G42" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">             MIXED("IM") |</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F42" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>21</v>
       </c>
@@ -1587,27 +1588,25 @@
       <c r="E43" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G43" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">             MIXED("IN") |</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F43" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>142</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G44" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">             MIXED("IN0") |</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D44" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>22</v>
       </c>
@@ -1619,12 +1618,11 @@
       <c r="E45" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G45" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">             MIXED("INC") |</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F45" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>23</v>
       </c>
@@ -1636,256 +1634,195 @@
       <c r="E46" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G46" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">             MIXED("IND") |</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F46" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>24</v>
+        <v>148</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G47" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">             MIXED("INDR") |</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>25</v>
+        <v>149</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G48" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">             MIXED("INI") |</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>26</v>
+        <v>150</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G49" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">             MIXED("INIR") |</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>151</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>152</v>
+      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>153</v>
+      </c>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>154</v>
+      </c>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>155</v>
+      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>156</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>157</v>
+      </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>85</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="G50" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">             MIXED("INR") |</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="B60" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>86</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="G51" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">             MIXED("INX") |</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>87</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="G52" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">             MIXED("JC") |</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>88</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="G53" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">             MIXED("JM") |</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>89</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="G54" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">             MIXED("JMP") |</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>90</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="G55" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">             MIXED("JNC") |</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>91</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="G56" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">             MIXED("JNZ") |</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>27</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G57" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">             MIXED("JP") |</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>92</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="G58" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">             MIXED("JPE") |</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>93</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="G59" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">             MIXED("JPO") |</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>28</v>
-      </c>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G60" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">             MIXED("JR") |</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>94</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>128</v>
@@ -1895,31 +1832,25 @@
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
-      <c r="G61" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">             MIXED("JZ") |</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>29</v>
-      </c>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G62" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">             MIXED("LD") |</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>128</v>
@@ -1929,14 +1860,11 @@
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
-      <c r="G63" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">             MIXED("LDA") |</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>128</v>
@@ -1946,82 +1874,73 @@
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
-      <c r="G64" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">             MIXED("LDAX") |</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F64" s="3"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>30</v>
-      </c>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G65" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">             MIXED("LDD") |</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>31</v>
-      </c>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G66" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">             MIXED("LDDR") |</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>32</v>
-      </c>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="D67" s="3" t="s">
         <v>128</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G67" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">             MIXED("LDI") |</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F67" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>33</v>
-      </c>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G68" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">             MIXED("LDIR") |</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>128</v>
@@ -2031,31 +1950,27 @@
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
-      <c r="G69" t="str">
-        <f t="shared" ref="G69:G132" si="1">"             MIXED(""" &amp;A69&amp;""") |"</f>
-        <v xml:space="preserve">             MIXED("LHLD") |</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F69" s="3"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>98</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="G70" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">             MIXED("LXI") |</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>128</v>
@@ -2065,29 +1980,27 @@
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
-      <c r="G71" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">             MIXED("MOV") |</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F71" s="3"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>143</v>
+        <v>29</v>
       </c>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
+      <c r="D72" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="E72" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G72" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">             MIXED("MULT") |</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F72" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>128</v>
@@ -2097,52 +2010,41 @@
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
-      <c r="G73" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">             MIXED("MVI") |</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F73" s="3"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>34</v>
-      </c>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G74" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">             MIXED("NEG") |</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>35</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>128</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
       <c r="D75" s="3" t="s">
         <v>128</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G75" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">             MIXED("NOP") |</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F75" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -2152,155 +2054,137 @@
       <c r="E76" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G76" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">             MIXED("OR") |</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F76" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>101</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="G77" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">             MIXED("ORA") |</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>102</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="G78" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">             MIXED("ORI") |</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G79" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">             MIXED("OTD") |</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D79" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>137</v>
-      </c>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
+        <v>97</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="D80" s="3"/>
-      <c r="E80" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G80" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">             MIXED("OTDM") |</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>139</v>
-      </c>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
+        <v>98</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="D81" s="3"/>
-      <c r="E81" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G81" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">             MIXED("OTDMR") |</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>37</v>
+        <v>147</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E82" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G82" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">             MIXED("OTDR") |</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>140</v>
-      </c>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
+        <v>99</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="D83" s="3"/>
-      <c r="E83" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G83" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">             MIXED("OTI") |</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
-      <c r="E84" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G84" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">             MIXED("OTIM") |</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E84" s="3"/>
+      <c r="F84" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>138</v>
-      </c>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="D85" s="3"/>
-      <c r="E85" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G85" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">             MIXED("OTIMR") |</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -2310,14 +2194,13 @@
       <c r="E86" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G86" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">             MIXED("OTIR") |</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F86" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>128</v>
@@ -2331,311 +2214,251 @@
       <c r="E87" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G87" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">             MIXED("OUT") |</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F87" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>144</v>
+        <v>36</v>
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
+      <c r="D88" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="E88" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G88" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">             MIXED("OUT0") |</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F88" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>40</v>
-      </c>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3" t="s">
-        <v>128</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D89" s="3"/>
       <c r="E89" s="3"/>
-      <c r="G89" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">             MIXED("OUTD") |</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F89" s="3"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>41</v>
-      </c>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3" t="s">
-        <v>128</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D90" s="3"/>
       <c r="E90" s="3"/>
-      <c r="G90" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">             MIXED("OUTI") |</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F90" s="3"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>103</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>128</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
-      <c r="G91" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">             MIXED("PCHL") |</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F91" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>42</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>128</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
       <c r="D92" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E92" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G92" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">             MIXED("POP") |</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>43</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>128</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
       <c r="D93" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E93" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G93" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">             MIXED("PUSH") |</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E93" s="3"/>
+      <c r="F93" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>104</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D94" s="3"/>
+        <v>139</v>
+      </c>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="E94" s="3"/>
-      <c r="G94" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">             MIXED("RAL") |</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F94" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>105</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-      <c r="G95" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">             MIXED("RAR") |</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>106</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D96" s="3"/>
+        <v>159</v>
+      </c>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="E96" s="3"/>
-      <c r="G96" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">             MIXED("RC") |</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F96" s="3"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
-      <c r="D97" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G97" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">             MIXED("RES") |</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>45</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>128</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
       <c r="D98" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E98" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G98" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">             MIXED("RET") |</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E99" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G99" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">             MIXED("RETI") |</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E99" s="3"/>
+      <c r="F99" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G100" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">             MIXED("RETN") |</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E100" s="3"/>
+      <c r="F100" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="B101" s="3"/>
-      <c r="C101" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
-      <c r="G101" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">             MIXED("RIM") |</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C101" s="3"/>
+      <c r="D101" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>48</v>
+        <v>160</v>
       </c>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G102" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">             MIXED("RL") |</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>49</v>
-      </c>
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="D103" s="3" t="s">
         <v>128</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G103" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">             MIXED("RLA") |</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F103" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>50</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>128</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
       <c r="D104" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E104" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G104" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">             MIXED("RLC") |</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E104" s="3"/>
+      <c r="F104" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -2645,65 +2468,49 @@
       <c r="E105" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G105" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">             MIXED("RLCA") |</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F105" s="3"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>52</v>
+        <v>161</v>
       </c>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E106" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G106" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">             MIXED("RLD") |</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E106" s="3"/>
+      <c r="F106" s="3"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>107</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D107" s="3"/>
-      <c r="E107" s="3"/>
-      <c r="G107" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">             MIXED("RM") |</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F107" s="3"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>108</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D108" s="3"/>
+        <v>163</v>
+      </c>
+      <c r="B108" s="3"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="E108" s="3"/>
-      <c r="G108" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">             MIXED("RNC") |</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F108" s="3"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>128</v>
@@ -2713,31 +2520,23 @@
       </c>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
-      <c r="G109" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">             MIXED("RNZ") |</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F109" s="3"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>110</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D110" s="3"/>
+        <v>165</v>
+      </c>
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="E110" s="3"/>
-      <c r="G110" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">             MIXED("RP") |</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F110" s="3"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>128</v>
@@ -2745,16 +2544,19 @@
       <c r="C111" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D111" s="3"/>
-      <c r="E111" s="3"/>
-      <c r="G111" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">             MIXED("RPE") |</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D111" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>128</v>
@@ -2762,50 +2564,47 @@
       <c r="C112" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D112" s="3"/>
-      <c r="E112" s="3"/>
-      <c r="G112" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">             MIXED("RPO") |</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D112" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>53</v>
-      </c>
-      <c r="B113" s="3"/>
-      <c r="C113" s="3"/>
-      <c r="D113" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G113" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">             MIXED("RR") |</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>54</v>
-      </c>
-      <c r="B114" s="3"/>
-      <c r="C114" s="3"/>
-      <c r="D114" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G114" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">             MIXED("RRA") |</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>128</v>
@@ -2813,20 +2612,13 @@
       <c r="C115" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D115" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G115" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">             MIXED("RRC") |</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D115" s="3"/>
+      <c r="E115" s="3"/>
+      <c r="F115" s="3"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -2836,86 +2628,77 @@
       <c r="E116" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G116" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">             MIXED("RRCA") |</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F116" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>57</v>
-      </c>
-      <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="D117" s="3" t="s">
         <v>128</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G117" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">             MIXED("RRD") |</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F117" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>58</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>128</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B118" s="3"/>
+      <c r="C118" s="3"/>
       <c r="D118" s="3" t="s">
         <v>128</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G118" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">             MIXED("RST") |</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F118" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>113</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D119" s="3"/>
-      <c r="E119" s="3"/>
-      <c r="G119" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">             MIXED("RZ") |</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="B119" s="3"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>114</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>128</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="B120" s="3"/>
       <c r="C120" s="3" t="s">
         <v>128</v>
       </c>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
-      <c r="G120" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">             MIXED("SBB") |</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F120" s="3"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -2925,48 +2708,49 @@
       <c r="E121" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G121" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">             MIXED("SBC") |</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F121" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>115</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D122" s="3"/>
-      <c r="E122" s="3"/>
-      <c r="G122" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">             MIXED("SBI") |</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="B122" s="3"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>60</v>
-      </c>
-      <c r="B123" s="3"/>
-      <c r="C123" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="D123" s="3" t="s">
         <v>128</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G123" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">             MIXED("SCF") |</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F123" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -2976,78 +2760,71 @@
       <c r="E124" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G124" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">             MIXED("SET") |</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F124" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>116</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D125" s="3"/>
-      <c r="E125" s="3"/>
-      <c r="G125" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">             MIXED("SHLD") |</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="B125" s="3"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>134</v>
-      </c>
-      <c r="B126" s="3"/>
+        <v>107</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="C126" s="3" t="s">
         <v>128</v>
       </c>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
-      <c r="G126" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">             MIXED("SIM") |</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F126" s="3"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>62</v>
-      </c>
-      <c r="B127" s="3"/>
-      <c r="C127" s="3"/>
-      <c r="D127" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E127" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G127" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">             MIXED("SLA") |</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3"/>
+      <c r="F127" s="3"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>135</v>
-      </c>
-      <c r="B128" s="3"/>
-      <c r="C128" s="3"/>
+        <v>109</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="D128" s="3"/>
-      <c r="E128" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G128" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">             MIXED("SLP") |</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E128" s="3"/>
+      <c r="F128" s="3"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>128</v>
@@ -3057,82 +2834,71 @@
       </c>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
-      <c r="G129" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">             MIXED("SPHL") |</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F129" s="3"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>63</v>
-      </c>
-      <c r="B130" s="3"/>
-      <c r="C130" s="3"/>
-      <c r="D130" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E130" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G130" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">             MIXED("SRA") |</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D130" s="3"/>
+      <c r="E130" s="3"/>
+      <c r="F130" s="3"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>64</v>
-      </c>
-      <c r="B131" s="3"/>
-      <c r="C131" s="3"/>
-      <c r="D131" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G131" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">             MIXED("SRL") |</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D131" s="3"/>
+      <c r="E131" s="3"/>
+      <c r="F131" s="3"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>118</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D132" s="3"/>
-      <c r="E132" s="3"/>
-      <c r="G132" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">             MIXED("STA") |</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="B132" s="3"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>119</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D133" s="3"/>
-      <c r="E133" s="3"/>
-      <c r="G133" t="str">
-        <f t="shared" ref="G133:G142" si="2">"             MIXED(""" &amp;A133&amp;""") |"</f>
-        <v xml:space="preserve">             MIXED("STAX") |</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="B133" s="3"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>128</v>
@@ -3140,69 +2906,63 @@
       <c r="C134" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D134" s="3"/>
-      <c r="E134" s="3"/>
-      <c r="G134" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">             MIXED("STC") |</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D134" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>65</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>128</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B135" s="3"/>
+      <c r="C135" s="3"/>
       <c r="D135" s="3" t="s">
         <v>128</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G135" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">             MIXED("SUB") |</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F135" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>121</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D136" s="3"/>
-      <c r="E136" s="3"/>
-      <c r="G136" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">             MIXED("SUI") |</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="B136" s="3"/>
+      <c r="C136" s="3"/>
+      <c r="D136" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
-      <c r="D137" s="3"/>
-      <c r="E137" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G137" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">             MIXED("TST") |</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D137" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E137" s="3"/>
+      <c r="F137" s="3"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>122</v>
+        <v>58</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>128</v>
@@ -3210,33 +2970,33 @@
       <c r="C138" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D138" s="3"/>
-      <c r="E138" s="3"/>
-      <c r="G138" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">             MIXED("XCHG") |</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D138" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>66</v>
-      </c>
-      <c r="B139" s="3"/>
-      <c r="C139" s="3"/>
-      <c r="D139" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G139" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">             MIXED("XOR") |</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D139" s="3"/>
+      <c r="E139" s="3"/>
+      <c r="F139" s="3"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>128</v>
@@ -3246,31 +3006,27 @@
       </c>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
-      <c r="G140" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">             MIXED("XRA") |</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F140" s="3"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>124</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D141" s="3"/>
-      <c r="E141" s="3"/>
-      <c r="G141" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">             MIXED("XRI") |</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="B141" s="3"/>
+      <c r="C141" s="3"/>
+      <c r="D141" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>128</v>
@@ -3280,10 +3036,327 @@
       </c>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
-      <c r="G142" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">             MIXED("XTHL") |</v>
-      </c>
+      <c r="F142" s="3"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>60</v>
+      </c>
+      <c r="B143" s="3"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>61</v>
+      </c>
+      <c r="B144" s="3"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>116</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D145" s="3"/>
+      <c r="E145" s="3"/>
+      <c r="F145" s="3"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>134</v>
+      </c>
+      <c r="B146" s="3"/>
+      <c r="C146" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D146" s="3"/>
+      <c r="E146" s="3"/>
+      <c r="F146" s="3"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>62</v>
+      </c>
+      <c r="B147" s="3"/>
+      <c r="C147" s="3"/>
+      <c r="D147" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>135</v>
+      </c>
+      <c r="B148" s="3"/>
+      <c r="C148" s="3"/>
+      <c r="D148" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E148" s="3"/>
+      <c r="F148" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>117</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D149" s="3"/>
+      <c r="E149" s="3"/>
+      <c r="F149" s="3"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>63</v>
+      </c>
+      <c r="B150" s="3"/>
+      <c r="C150" s="3"/>
+      <c r="D150" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>64</v>
+      </c>
+      <c r="B151" s="3"/>
+      <c r="C151" s="3"/>
+      <c r="D151" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>118</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D152" s="3"/>
+      <c r="E152" s="3"/>
+      <c r="F152" s="3"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>119</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D153" s="3"/>
+      <c r="E153" s="3"/>
+      <c r="F153" s="3"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>120</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D154" s="3"/>
+      <c r="E154" s="3"/>
+      <c r="F154" s="3"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>167</v>
+      </c>
+      <c r="B155" s="3"/>
+      <c r="C155" s="3"/>
+      <c r="D155" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E155" s="3"/>
+      <c r="F155" s="3"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>65</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>121</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D157" s="3"/>
+      <c r="E157" s="3"/>
+      <c r="F157" s="3"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>145</v>
+      </c>
+      <c r="B158" s="3"/>
+      <c r="C158" s="3"/>
+      <c r="D158" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E158" s="3"/>
+      <c r="F158" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>168</v>
+      </c>
+      <c r="B159" s="3"/>
+      <c r="C159" s="3"/>
+      <c r="D159" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E159" s="3"/>
+      <c r="F159" s="3"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>122</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D160" s="3"/>
+      <c r="E160" s="3"/>
+      <c r="F160" s="3"/>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>66</v>
+      </c>
+      <c r="B161" s="3"/>
+      <c r="C161" s="3"/>
+      <c r="D161" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>123</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D162" s="3"/>
+      <c r="E162" s="3"/>
+      <c r="F162" s="3"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>124</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D163" s="3"/>
+      <c r="E163" s="3"/>
+      <c r="F163" s="3"/>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>125</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D164" s="3"/>
+      <c r="E164" s="3"/>
+      <c r="F164" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
